--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levan\GitHub\fast_schema_analysis_3\results\qc_check_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064B003-2213-4DD9-B08A-A78593FA1480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E526E7-2216-40C3-9C56-71CA99D5CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>participant</t>
   </si>
@@ -33,25 +33,22 @@
     <t>reason</t>
   </si>
   <si>
-    <t>sub_001</t>
-  </si>
-  <si>
-    <t>sub_002</t>
-  </si>
-  <si>
     <t>qc_fail_manual</t>
   </si>
   <si>
-    <t>sub_003</t>
-  </si>
-  <si>
-    <t>sub_004</t>
-  </si>
-  <si>
-    <t>sub_005</t>
-  </si>
-  <si>
-    <t>sub_006</t>
+    <t>sub_012</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>sub_014</t>
+  </si>
+  <si>
+    <t>sub_020</t>
+  </si>
+  <si>
+    <t>missing input for listing names of pictures for the last page.</t>
   </si>
 </sst>
 </file>
@@ -375,75 +372,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C86"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levan\GitHub\fast_schema_analysis_3\results\qc_check_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lb08\GitHub\fast_schema_analysis_3\results\qc_check_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E526E7-2216-40C3-9C56-71CA99D5CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>participant</t>
   </si>
@@ -49,12 +48,24 @@
   </si>
   <si>
     <t>missing input for listing names of pictures for the last page.</t>
+  </si>
+  <si>
+    <t>sub_027</t>
+  </si>
+  <si>
+    <t>did not understand the instructions</t>
+  </si>
+  <si>
+    <t>sub_051</t>
+  </si>
+  <si>
+    <t>display issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,20 +382,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -406,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -417,7 +428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -426,6 +437,28 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>participant</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>display issues</t>
+  </si>
+  <si>
+    <t>sub_098</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +464,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>participant</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>sub_098</t>
+  </si>
+  <si>
+    <t>sub_104</t>
+  </si>
+  <si>
+    <t>technical, mouse issues</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +481,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>participant</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>technical, mouse issues</t>
+  </si>
+  <si>
+    <t>sub_129</t>
+  </si>
+  <si>
+    <t>did not name the items</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +498,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
+++ b/results/qc_check_sheets/qc_check_debrief_and_errors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>participant</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>did not name the items</t>
+  </si>
+  <si>
+    <t>sub_131</t>
+  </si>
+  <si>
+    <t>extra participant</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -509,6 +515,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
